--- a/Code/Results/Cases/Case_0_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001327519507958</v>
+        <v>1.043777964896466</v>
       </c>
       <c r="D2">
-        <v>1.009690534948221</v>
+        <v>1.046422437487553</v>
       </c>
       <c r="E2">
-        <v>1.013687590693365</v>
+        <v>1.050702238819456</v>
       </c>
       <c r="F2">
-        <v>1.01617122804354</v>
+        <v>1.059117335349212</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047922528562257</v>
+        <v>1.037084195325046</v>
       </c>
       <c r="J2">
-        <v>1.023468597062746</v>
+        <v>1.048846589159147</v>
       </c>
       <c r="K2">
-        <v>1.021016496104181</v>
+        <v>1.049187917374362</v>
       </c>
       <c r="L2">
-        <v>1.024959473103006</v>
+        <v>1.053455782578758</v>
       </c>
       <c r="M2">
-        <v>1.027409776938607</v>
+        <v>1.061847714574401</v>
       </c>
       <c r="N2">
-        <v>1.011205024961217</v>
+        <v>1.020083205544521</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008173449960746</v>
+        <v>1.045140047200246</v>
       </c>
       <c r="D3">
-        <v>1.015876592042754</v>
+        <v>1.04769971047788</v>
       </c>
       <c r="E3">
-        <v>1.019683621667322</v>
+        <v>1.051951329093779</v>
       </c>
       <c r="F3">
-        <v>1.022927326173236</v>
+        <v>1.060545101620936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049964545602588</v>
+        <v>1.037366805308733</v>
       </c>
       <c r="J3">
-        <v>1.028443751566855</v>
+        <v>1.049853613378434</v>
       </c>
       <c r="K3">
-        <v>1.026310280519853</v>
+        <v>1.050275620169715</v>
       </c>
       <c r="L3">
-        <v>1.030070692339273</v>
+        <v>1.054516247850206</v>
       </c>
       <c r="M3">
-        <v>1.03327501707674</v>
+        <v>1.063088094530384</v>
       </c>
       <c r="N3">
-        <v>1.012904867794198</v>
+        <v>1.02042292249447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012474666474857</v>
+        <v>1.046020028938228</v>
       </c>
       <c r="D4">
-        <v>1.019768093157416</v>
+        <v>1.048525116865004</v>
       </c>
       <c r="E4">
-        <v>1.023457715052798</v>
+        <v>1.052758722304576</v>
       </c>
       <c r="F4">
-        <v>1.027181525912958</v>
+        <v>1.061468339309538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051229079778817</v>
+        <v>1.037547084364344</v>
       </c>
       <c r="J4">
-        <v>1.031564563774454</v>
+        <v>1.050503405756327</v>
       </c>
       <c r="K4">
-        <v>1.029633648341009</v>
+        <v>1.050977814091634</v>
       </c>
       <c r="L4">
-        <v>1.033281035450228</v>
+        <v>1.055201031819742</v>
       </c>
       <c r="M4">
-        <v>1.03696259932384</v>
+        <v>1.063889558649313</v>
       </c>
       <c r="N4">
-        <v>1.013970607027624</v>
+        <v>1.020641979186582</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014253721579234</v>
+        <v>1.046389648833521</v>
       </c>
       <c r="D5">
-        <v>1.021378786855256</v>
+        <v>1.048871864586153</v>
       </c>
       <c r="E5">
-        <v>1.02502031891799</v>
+        <v>1.053097950490324</v>
       </c>
       <c r="F5">
-        <v>1.028943344306463</v>
+        <v>1.061856324151796</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051747612814181</v>
+        <v>1.037622255082367</v>
       </c>
       <c r="J5">
-        <v>1.03285411988239</v>
+        <v>1.050776146393683</v>
       </c>
       <c r="K5">
-        <v>1.031007550026707</v>
+        <v>1.051272631715084</v>
       </c>
       <c r="L5">
-        <v>1.03460859305746</v>
+        <v>1.055488581563896</v>
       </c>
       <c r="M5">
-        <v>1.03848839350364</v>
+        <v>1.064226224369151</v>
       </c>
       <c r="N5">
-        <v>1.014410842187961</v>
+        <v>1.020733889118435</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014550766049911</v>
+        <v>1.046451690764246</v>
       </c>
       <c r="D6">
-        <v>1.02164778351142</v>
+        <v>1.048930070330933</v>
       </c>
       <c r="E6">
-        <v>1.025281313786144</v>
+        <v>1.053154896787194</v>
       </c>
       <c r="F6">
-        <v>1.029237639391869</v>
+        <v>1.061921460191014</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051833924242293</v>
+        <v>1.037634840333317</v>
       </c>
       <c r="J6">
-        <v>1.033069357875755</v>
+        <v>1.050821915511962</v>
       </c>
       <c r="K6">
-        <v>1.031236904181259</v>
+        <v>1.051322110440144</v>
       </c>
       <c r="L6">
-        <v>1.034830233125887</v>
+        <v>1.05553684298343</v>
       </c>
       <c r="M6">
-        <v>1.038743182300653</v>
+        <v>1.064282736326513</v>
       </c>
       <c r="N6">
-        <v>1.014484312602788</v>
+        <v>1.020749310589915</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012498550915653</v>
+        <v>1.046024969085805</v>
       </c>
       <c r="D7">
-        <v>1.019789713002934</v>
+        <v>1.04852975111452</v>
       </c>
       <c r="E7">
-        <v>1.023478687412341</v>
+        <v>1.052763255868835</v>
       </c>
       <c r="F7">
-        <v>1.02720517026197</v>
+        <v>1.061473524143039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05123605917154</v>
+        <v>1.037548091228502</v>
       </c>
       <c r="J7">
-        <v>1.031581881598538</v>
+        <v>1.050507051823492</v>
       </c>
       <c r="K7">
-        <v>1.029652096299853</v>
+        <v>1.050981754966174</v>
       </c>
       <c r="L7">
-        <v>1.03329885961857</v>
+        <v>1.055204875379203</v>
       </c>
       <c r="M7">
-        <v>1.036983081548983</v>
+        <v>1.06389405824803</v>
       </c>
       <c r="N7">
-        <v>1.013976519646269</v>
+        <v>1.02064320800337</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.0036687576527</v>
+        <v>1.04423857511987</v>
       </c>
       <c r="D8">
-        <v>1.011805032567717</v>
+        <v>1.046854322894172</v>
       </c>
       <c r="E8">
-        <v>1.015736680295455</v>
+        <v>1.051124553486915</v>
       </c>
       <c r="F8">
-        <v>1.018479723621029</v>
+        <v>1.059599987425546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048624721141878</v>
+        <v>1.037180241324097</v>
       </c>
       <c r="J8">
-        <v>1.025171069688184</v>
+        <v>1.049187296618041</v>
       </c>
       <c r="K8">
-        <v>1.022827436714747</v>
+        <v>1.049555849836301</v>
       </c>
       <c r="L8">
-        <v>1.026707625308608</v>
+        <v>1.053814465508547</v>
       </c>
       <c r="M8">
-        <v>1.029415060929058</v>
+        <v>1.062267146355431</v>
       </c>
       <c r="N8">
-        <v>1.011786808569066</v>
+        <v>1.020198173126561</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9870456404613965</v>
+        <v>1.041079946459546</v>
       </c>
       <c r="D9">
-        <v>0.9968158970003611</v>
+        <v>1.043893586557746</v>
       </c>
       <c r="E9">
-        <v>1.001220715947945</v>
+        <v>1.048230247647196</v>
       </c>
       <c r="F9">
-        <v>1.002132180212552</v>
+        <v>1.056293593806342</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043562643343418</v>
+        <v>1.036512167744824</v>
       </c>
       <c r="J9">
-        <v>1.013064292693877</v>
+        <v>1.046847622973729</v>
       </c>
       <c r="K9">
-        <v>1.009960846163378</v>
+        <v>1.04703062764189</v>
       </c>
       <c r="L9">
-        <v>1.014294018886225</v>
+        <v>1.051353438236902</v>
       </c>
       <c r="M9">
-        <v>1.015190758742039</v>
+        <v>1.059391362008001</v>
       </c>
       <c r="N9">
-        <v>1.007647772716259</v>
+        <v>1.01940807063616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9751241768369278</v>
+        <v>1.038966623650252</v>
       </c>
       <c r="D10">
-        <v>0.9861009569816133</v>
+        <v>1.041913837508065</v>
       </c>
       <c r="E10">
-        <v>0.9908566217879978</v>
+        <v>1.046295949384131</v>
       </c>
       <c r="F10">
-        <v>0.9904666593063135</v>
+        <v>1.054085678443585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039838187519767</v>
+        <v>1.036053349724307</v>
       </c>
       <c r="J10">
-        <v>1.004360742166151</v>
+        <v>1.0452781357979</v>
       </c>
       <c r="K10">
-        <v>1.000725780967321</v>
+        <v>1.04533843885573</v>
       </c>
       <c r="L10">
-        <v>1.005392948740086</v>
+        <v>1.04970516061992</v>
       </c>
       <c r="M10">
-        <v>1.005010201274894</v>
+        <v>1.057467879582648</v>
       </c>
       <c r="N10">
-        <v>1.004670532687714</v>
+        <v>1.018877299793899</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9697306894204052</v>
+        <v>1.038049662407177</v>
       </c>
       <c r="D11">
-        <v>0.9812629529369388</v>
+        <v>1.041055118996113</v>
       </c>
       <c r="E11">
-        <v>0.986180185775886</v>
+        <v>1.045457190082369</v>
       </c>
       <c r="F11">
-        <v>0.9852039588281631</v>
+        <v>1.053128691953644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038132108259332</v>
+        <v>1.035851472727108</v>
       </c>
       <c r="J11">
-        <v>1.000419269207801</v>
+        <v>1.044596177176998</v>
       </c>
       <c r="K11">
-        <v>0.9965470896409508</v>
+        <v>1.044603582995271</v>
       </c>
       <c r="L11">
-        <v>1.001367515825081</v>
+        <v>1.048989584724927</v>
       </c>
       <c r="M11">
-        <v>1.000410407176169</v>
+        <v>1.056633436836252</v>
       </c>
       <c r="N11">
-        <v>1.003322079043993</v>
+        <v>1.018646496331948</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9676893782258416</v>
+        <v>1.037708773500474</v>
       </c>
       <c r="D12">
-        <v>0.9794334593882504</v>
+        <v>1.040735925951573</v>
       </c>
       <c r="E12">
-        <v>0.9844122789685469</v>
+        <v>1.045145452874526</v>
       </c>
       <c r="F12">
-        <v>0.9832145105580691</v>
+        <v>1.052773076660283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037483351453832</v>
+        <v>1.035776003428113</v>
       </c>
       <c r="J12">
-        <v>0.9989270481646472</v>
+        <v>1.044342508216358</v>
       </c>
       <c r="K12">
-        <v>0.9949655815818963</v>
+        <v>1.044330300475684</v>
       </c>
       <c r="L12">
-        <v>0.9998443348100753</v>
+        <v>1.048723503774488</v>
       </c>
       <c r="M12">
-        <v>0.9986705178487143</v>
+        <v>1.056323247583272</v>
       </c>
       <c r="N12">
-        <v>1.002811553340544</v>
+        <v>1.018560617516866</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9681290179554529</v>
+        <v>1.037781908495281</v>
       </c>
       <c r="D13">
-        <v>0.9798274060946635</v>
+        <v>1.04080440428967</v>
       </c>
       <c r="E13">
-        <v>0.9847929417605897</v>
+        <v>1.045212330001732</v>
       </c>
       <c r="F13">
-        <v>0.9836428719507799</v>
+        <v>1.052849364137416</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037623210400096</v>
+        <v>1.035792213739819</v>
       </c>
       <c r="J13">
-        <v>0.9992484487025191</v>
+        <v>1.044396937396039</v>
       </c>
       <c r="K13">
-        <v>0.9953061895334175</v>
+        <v>1.044388935257864</v>
       </c>
       <c r="L13">
-        <v>1.000172366267831</v>
+        <v>1.048780591977207</v>
       </c>
       <c r="M13">
-        <v>0.9990451916499848</v>
+        <v>1.056389795181012</v>
       </c>
       <c r="N13">
-        <v>1.002921512445776</v>
+        <v>1.018579045541325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9695627474628974</v>
+        <v>1.038021490350137</v>
       </c>
       <c r="D14">
-        <v>0.981112404704031</v>
+        <v>1.041028739055959</v>
       </c>
       <c r="E14">
-        <v>0.9860346954582958</v>
+        <v>1.045431425583926</v>
       </c>
       <c r="F14">
-        <v>0.9850402351192621</v>
+        <v>1.053099299734527</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038078795011485</v>
+        <v>1.035845244277445</v>
       </c>
       <c r="J14">
-        <v>1.000296510510654</v>
+        <v>1.044575216174925</v>
       </c>
       <c r="K14">
-        <v>0.9964169750846807</v>
+        <v>1.044581000021088</v>
       </c>
       <c r="L14">
-        <v>1.001242193400427</v>
+        <v>1.048967596215162</v>
       </c>
       <c r="M14">
-        <v>1.000267242150064</v>
+        <v>1.056607801424261</v>
       </c>
       <c r="N14">
-        <v>1.003280080306673</v>
+        <v>1.018639400592732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9704409881154541</v>
+        <v>1.038169066192339</v>
       </c>
       <c r="D15">
-        <v>0.9818997511365622</v>
+        <v>1.041166928903284</v>
       </c>
       <c r="E15">
-        <v>0.9867956097022338</v>
+        <v>1.045566392982052</v>
       </c>
       <c r="F15">
-        <v>0.9858965134652997</v>
+        <v>1.053253273526442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03835746987735</v>
+        <v>1.035877854066872</v>
       </c>
       <c r="J15">
-        <v>1.000938450313172</v>
+        <v>1.044685011884778</v>
       </c>
       <c r="K15">
-        <v>0.9970974019819054</v>
+        <v>1.044699294339444</v>
       </c>
       <c r="L15">
-        <v>1.001897573272653</v>
+        <v>1.049082777899159</v>
       </c>
       <c r="M15">
-        <v>1.001015956040216</v>
+        <v>1.056742090293806</v>
       </c>
       <c r="N15">
-        <v>1.003499703320957</v>
+        <v>1.018676567658569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9754769881129576</v>
+        <v>1.039027439220669</v>
       </c>
       <c r="D16">
-        <v>0.9864176418690335</v>
+        <v>1.041970796319647</v>
       </c>
       <c r="E16">
-        <v>0.9911627974189354</v>
+        <v>1.046351589459911</v>
       </c>
       <c r="F16">
-        <v>0.9908112345668973</v>
+        <v>1.054149170073989</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039949363343164</v>
+        <v>1.036066679961024</v>
       </c>
       <c r="J16">
-        <v>1.004618500759239</v>
+        <v>1.045323345028725</v>
       </c>
       <c r="K16">
-        <v>1.000999124810837</v>
+        <v>1.045387163599339</v>
       </c>
       <c r="L16">
-        <v>1.005656311746502</v>
+        <v>1.049752611435448</v>
       </c>
       <c r="M16">
-        <v>1.005311228719196</v>
+        <v>1.057523225429586</v>
       </c>
       <c r="N16">
-        <v>1.004758714626265</v>
+        <v>1.018892596767108</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9785718690722228</v>
+        <v>1.039565366474757</v>
       </c>
       <c r="D17">
-        <v>0.9891967213945789</v>
+        <v>1.042474642733425</v>
       </c>
       <c r="E17">
-        <v>0.9938500106443413</v>
+        <v>1.046843798864643</v>
       </c>
       <c r="F17">
-        <v>0.9938355728164812</v>
+        <v>1.054710885206912</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040922239992389</v>
+        <v>1.036184266084512</v>
       </c>
       <c r="J17">
-        <v>1.006879154267675</v>
+        <v>1.045723119419802</v>
       </c>
       <c r="K17">
-        <v>1.003396860358371</v>
+        <v>1.045818073004561</v>
       </c>
       <c r="L17">
-        <v>1.007966737620825</v>
+        <v>1.050172278863627</v>
       </c>
       <c r="M17">
-        <v>1.007952557028449</v>
+        <v>1.058012788852964</v>
       </c>
       <c r="N17">
-        <v>1.00553208928463</v>
+        <v>1.019027843731992</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9803549658893786</v>
+        <v>1.039878949530133</v>
       </c>
       <c r="D18">
-        <v>0.990798766782598</v>
+        <v>1.042768385952584</v>
       </c>
       <c r="E18">
-        <v>0.9953993938678377</v>
+        <v>1.047130781290427</v>
       </c>
       <c r="F18">
-        <v>0.9955794281174067</v>
+        <v>1.055038433411512</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041480768902665</v>
+        <v>1.036252542878412</v>
       </c>
       <c r="J18">
-        <v>1.008181248537651</v>
+        <v>1.045956073632843</v>
       </c>
       <c r="K18">
-        <v>1.00477823841181</v>
+        <v>1.046069210276792</v>
       </c>
       <c r="L18">
-        <v>1.009298015127667</v>
+        <v>1.05041688454927</v>
       </c>
       <c r="M18">
-        <v>1.009474905172263</v>
+        <v>1.058298192554708</v>
       </c>
       <c r="N18">
-        <v>1.005977519795493</v>
+        <v>1.019106636911218</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9809592979045884</v>
+        <v>1.039985842773493</v>
       </c>
       <c r="D19">
-        <v>0.9913418845749096</v>
+        <v>1.042868520894578</v>
       </c>
       <c r="E19">
-        <v>0.9959247080976895</v>
+        <v>1.047228615528747</v>
       </c>
       <c r="F19">
-        <v>0.9961706949163538</v>
+        <v>1.055150103675562</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041669726417999</v>
+        <v>1.036275771101302</v>
       </c>
       <c r="J19">
-        <v>1.008622492423227</v>
+        <v>1.046035466560838</v>
       </c>
       <c r="K19">
-        <v>1.005246404893505</v>
+        <v>1.046154806986844</v>
       </c>
       <c r="L19">
-        <v>1.009749235764781</v>
+        <v>1.05050025850652</v>
       </c>
       <c r="M19">
-        <v>1.009990955845453</v>
+        <v>1.058395482499059</v>
       </c>
       <c r="N19">
-        <v>1.006128460164801</v>
+        <v>1.019133487434511</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9782421246178232</v>
+        <v>1.039507670721701</v>
       </c>
       <c r="D20">
-        <v>0.9889005300646142</v>
+        <v>1.042420599495539</v>
       </c>
       <c r="E20">
-        <v>0.9935635795015816</v>
+        <v>1.046791001386002</v>
       </c>
       <c r="F20">
-        <v>0.9935131979778045</v>
+        <v>1.054650627918636</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040818790527771</v>
+        <v>1.036171682200413</v>
       </c>
       <c r="J20">
-        <v>1.006638330115823</v>
+        <v>1.04568025096899</v>
       </c>
       <c r="K20">
-        <v>1.003141399063762</v>
+        <v>1.045771861732502</v>
       </c>
       <c r="L20">
-        <v>1.007720557720959</v>
+        <v>1.050127271093193</v>
       </c>
       <c r="M20">
-        <v>1.007671077123092</v>
+        <v>1.057960278923578</v>
       </c>
       <c r="N20">
-        <v>1.005449704626018</v>
+        <v>1.019013342755593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.969141624303961</v>
+        <v>1.037950947486133</v>
       </c>
       <c r="D21">
-        <v>0.9807349230935848</v>
+        <v>1.040962684360915</v>
       </c>
       <c r="E21">
-        <v>0.9856699038963163</v>
+        <v>1.045366912534115</v>
       </c>
       <c r="F21">
-        <v>0.9846297278324029</v>
+        <v>1.053025704061805</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037945060745171</v>
+        <v>1.035829641457049</v>
       </c>
       <c r="J21">
-        <v>0.9999886796549479</v>
+        <v>1.044522727469508</v>
       </c>
       <c r="K21">
-        <v>0.9960907070097438</v>
+        <v>1.044524450727234</v>
       </c>
       <c r="L21">
-        <v>1.000927947021646</v>
+        <v>1.048912536010846</v>
       </c>
       <c r="M21">
-        <v>0.9999082653578137</v>
+        <v>1.05654361068953</v>
       </c>
       <c r="N21">
-        <v>1.003174763818616</v>
+        <v>1.018621631635481</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631984571326111</v>
+        <v>1.036970500396627</v>
       </c>
       <c r="D22">
-        <v>0.9754116160000834</v>
+        <v>1.040044720666069</v>
       </c>
       <c r="E22">
-        <v>0.9805267463141276</v>
+        <v>1.044470460440993</v>
       </c>
       <c r="F22">
-        <v>0.9788421818882915</v>
+        <v>1.052003191227852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036050600003376</v>
+        <v>1.035611790465191</v>
       </c>
       <c r="J22">
-        <v>0.9956434126658094</v>
+        <v>1.043792866201747</v>
       </c>
       <c r="K22">
-        <v>0.9914864337928503</v>
+        <v>1.043738275023962</v>
       </c>
       <c r="L22">
-        <v>0.9964941008264627</v>
+        <v>1.048147137221162</v>
       </c>
       <c r="M22">
-        <v>0.9948447632311389</v>
+        <v>1.055651503520604</v>
       </c>
       <c r="N22">
-        <v>1.001688148594654</v>
+        <v>1.018374489517879</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9663711852906799</v>
+        <v>1.037490414734166</v>
       </c>
       <c r="D23">
-        <v>0.9782525126963796</v>
+        <v>1.040531476973249</v>
       </c>
       <c r="E23">
-        <v>0.9832712270017093</v>
+        <v>1.044945789868182</v>
       </c>
       <c r="F23">
-        <v>0.9819304896043429</v>
+        <v>1.052545328035589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037063569144253</v>
+        <v>1.035727542992246</v>
       </c>
       <c r="J23">
-        <v>0.9979633186699567</v>
+        <v>1.044179978188622</v>
       </c>
       <c r="K23">
-        <v>0.9939443346495079</v>
+        <v>1.04415522134461</v>
       </c>
       <c r="L23">
-        <v>0.9988608437349534</v>
+        <v>1.048553047240905</v>
       </c>
       <c r="M23">
-        <v>0.9975472754636557</v>
+        <v>1.056124560122454</v>
       </c>
       <c r="N23">
-        <v>1.002481837952967</v>
+        <v>1.01850558603382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9783911899885408</v>
+        <v>1.039533741507248</v>
       </c>
       <c r="D24">
-        <v>0.9890344245263607</v>
+        <v>1.042445019746498</v>
       </c>
       <c r="E24">
-        <v>0.9936930609151038</v>
+        <v>1.046814858648955</v>
       </c>
       <c r="F24">
-        <v>0.9936589274710567</v>
+        <v>1.054677855873414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040865562419912</v>
+        <v>1.036177369271268</v>
       </c>
       <c r="J24">
-        <v>1.006747199029614</v>
+        <v>1.045699622079071</v>
       </c>
       <c r="K24">
-        <v>1.003256883946488</v>
+        <v>1.045792743249982</v>
       </c>
       <c r="L24">
-        <v>1.007831846196843</v>
+        <v>1.050147608720791</v>
       </c>
       <c r="M24">
-        <v>1.00779832212163</v>
+        <v>1.057984006364643</v>
       </c>
       <c r="N24">
-        <v>1.005486948161189</v>
+        <v>1.019019895413266</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9914811422681965</v>
+        <v>1.041897837920476</v>
       </c>
       <c r="D25">
-        <v>1.000809917219967</v>
+        <v>1.044660032567621</v>
       </c>
       <c r="E25">
-        <v>1.005086554078319</v>
+        <v>1.048979315460049</v>
       </c>
       <c r="F25">
-        <v>1.006484566230089</v>
+        <v>1.057148997308302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044929754911458</v>
+        <v>1.036687243481574</v>
       </c>
       <c r="J25">
-        <v>1.01629864086845</v>
+        <v>1.047454178429282</v>
       </c>
       <c r="K25">
-        <v>1.01339567326416</v>
+        <v>1.047684975167296</v>
       </c>
       <c r="L25">
-        <v>1.01760641770477</v>
+        <v>1.051990993892163</v>
       </c>
       <c r="M25">
-        <v>1.018983044822481</v>
+        <v>1.060135910404223</v>
       </c>
       <c r="N25">
-        <v>1.008753877001322</v>
+        <v>1.019613037023756</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043777964896466</v>
+        <v>1.001327519507958</v>
       </c>
       <c r="D2">
-        <v>1.046422437487553</v>
+        <v>1.009690534948221</v>
       </c>
       <c r="E2">
-        <v>1.050702238819456</v>
+        <v>1.013687590693365</v>
       </c>
       <c r="F2">
-        <v>1.059117335349212</v>
+        <v>1.01617122804354</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037084195325046</v>
+        <v>1.047922528562256</v>
       </c>
       <c r="J2">
-        <v>1.048846589159147</v>
+        <v>1.023468597062746</v>
       </c>
       <c r="K2">
-        <v>1.049187917374362</v>
+        <v>1.021016496104181</v>
       </c>
       <c r="L2">
-        <v>1.053455782578758</v>
+        <v>1.024959473103006</v>
       </c>
       <c r="M2">
-        <v>1.061847714574401</v>
+        <v>1.027409776938607</v>
       </c>
       <c r="N2">
-        <v>1.020083205544521</v>
+        <v>1.011205024961218</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045140047200246</v>
+        <v>1.008173449960744</v>
       </c>
       <c r="D3">
-        <v>1.04769971047788</v>
+        <v>1.015876592042753</v>
       </c>
       <c r="E3">
-        <v>1.051951329093779</v>
+        <v>1.01968362166732</v>
       </c>
       <c r="F3">
-        <v>1.060545101620936</v>
+        <v>1.022927326173234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037366805308733</v>
+        <v>1.049964545602587</v>
       </c>
       <c r="J3">
-        <v>1.049853613378434</v>
+        <v>1.028443751566853</v>
       </c>
       <c r="K3">
-        <v>1.050275620169715</v>
+        <v>1.026310280519851</v>
       </c>
       <c r="L3">
-        <v>1.054516247850206</v>
+        <v>1.030070692339271</v>
       </c>
       <c r="M3">
-        <v>1.063088094530384</v>
+        <v>1.033275017076738</v>
       </c>
       <c r="N3">
-        <v>1.02042292249447</v>
+        <v>1.012904867794198</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046020028938228</v>
+        <v>1.012474666474855</v>
       </c>
       <c r="D4">
-        <v>1.048525116865004</v>
+        <v>1.019768093157414</v>
       </c>
       <c r="E4">
-        <v>1.052758722304576</v>
+        <v>1.023457715052797</v>
       </c>
       <c r="F4">
-        <v>1.061468339309538</v>
+        <v>1.027181525912956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037547084364344</v>
+        <v>1.051229079778816</v>
       </c>
       <c r="J4">
-        <v>1.050503405756327</v>
+        <v>1.031564563774453</v>
       </c>
       <c r="K4">
-        <v>1.050977814091634</v>
+        <v>1.029633648341007</v>
       </c>
       <c r="L4">
-        <v>1.055201031819742</v>
+        <v>1.033281035450227</v>
       </c>
       <c r="M4">
-        <v>1.063889558649313</v>
+        <v>1.036962599323838</v>
       </c>
       <c r="N4">
-        <v>1.020641979186582</v>
+        <v>1.013970607027624</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046389648833521</v>
+        <v>1.014253721579233</v>
       </c>
       <c r="D5">
-        <v>1.048871864586153</v>
+        <v>1.021378786855256</v>
       </c>
       <c r="E5">
-        <v>1.053097950490324</v>
+        <v>1.02502031891799</v>
       </c>
       <c r="F5">
-        <v>1.061856324151796</v>
+        <v>1.028943344306462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037622255082367</v>
+        <v>1.051747612814181</v>
       </c>
       <c r="J5">
-        <v>1.050776146393683</v>
+        <v>1.03285411988239</v>
       </c>
       <c r="K5">
-        <v>1.051272631715084</v>
+        <v>1.031007550026707</v>
       </c>
       <c r="L5">
-        <v>1.055488581563896</v>
+        <v>1.03460859305746</v>
       </c>
       <c r="M5">
-        <v>1.064226224369151</v>
+        <v>1.03848839350364</v>
       </c>
       <c r="N5">
-        <v>1.020733889118435</v>
+        <v>1.014410842187961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046451690764246</v>
+        <v>1.014550766049911</v>
       </c>
       <c r="D6">
-        <v>1.048930070330933</v>
+        <v>1.021647783511419</v>
       </c>
       <c r="E6">
-        <v>1.053154896787194</v>
+        <v>1.025281313786144</v>
       </c>
       <c r="F6">
-        <v>1.061921460191014</v>
+        <v>1.029237639391869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037634840333317</v>
+        <v>1.051833924242293</v>
       </c>
       <c r="J6">
-        <v>1.050821915511962</v>
+        <v>1.033069357875755</v>
       </c>
       <c r="K6">
-        <v>1.051322110440144</v>
+        <v>1.031236904181259</v>
       </c>
       <c r="L6">
-        <v>1.05553684298343</v>
+        <v>1.034830233125887</v>
       </c>
       <c r="M6">
-        <v>1.064282736326513</v>
+        <v>1.038743182300653</v>
       </c>
       <c r="N6">
-        <v>1.020749310589915</v>
+        <v>1.014484312602788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046024969085805</v>
+        <v>1.012498550915653</v>
       </c>
       <c r="D7">
-        <v>1.04852975111452</v>
+        <v>1.019789713002934</v>
       </c>
       <c r="E7">
-        <v>1.052763255868835</v>
+        <v>1.023478687412341</v>
       </c>
       <c r="F7">
-        <v>1.061473524143039</v>
+        <v>1.027205170261969</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037548091228502</v>
+        <v>1.05123605917154</v>
       </c>
       <c r="J7">
-        <v>1.050507051823492</v>
+        <v>1.031581881598538</v>
       </c>
       <c r="K7">
-        <v>1.050981754966174</v>
+        <v>1.029652096299853</v>
       </c>
       <c r="L7">
-        <v>1.055204875379203</v>
+        <v>1.03329885961857</v>
       </c>
       <c r="M7">
-        <v>1.06389405824803</v>
+        <v>1.036983081548983</v>
       </c>
       <c r="N7">
-        <v>1.02064320800337</v>
+        <v>1.013976519646269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.04423857511987</v>
+        <v>1.003668757652699</v>
       </c>
       <c r="D8">
-        <v>1.046854322894172</v>
+        <v>1.011805032567716</v>
       </c>
       <c r="E8">
-        <v>1.051124553486915</v>
+        <v>1.015736680295454</v>
       </c>
       <c r="F8">
-        <v>1.059599987425546</v>
+        <v>1.018479723621028</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037180241324097</v>
+        <v>1.048624721141877</v>
       </c>
       <c r="J8">
-        <v>1.049187296618041</v>
+        <v>1.025171069688184</v>
       </c>
       <c r="K8">
-        <v>1.049555849836301</v>
+        <v>1.022827436714745</v>
       </c>
       <c r="L8">
-        <v>1.053814465508547</v>
+        <v>1.026707625308607</v>
       </c>
       <c r="M8">
-        <v>1.062267146355431</v>
+        <v>1.029415060929056</v>
       </c>
       <c r="N8">
-        <v>1.020198173126561</v>
+        <v>1.011786808569066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041079946459546</v>
+        <v>0.9870456404613971</v>
       </c>
       <c r="D9">
-        <v>1.043893586557746</v>
+        <v>0.9968158970003622</v>
       </c>
       <c r="E9">
-        <v>1.048230247647196</v>
+        <v>1.001220715947946</v>
       </c>
       <c r="F9">
-        <v>1.056293593806342</v>
+        <v>1.002132180212552</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036512167744824</v>
+        <v>1.043562643343418</v>
       </c>
       <c r="J9">
-        <v>1.046847622973729</v>
+        <v>1.013064292693878</v>
       </c>
       <c r="K9">
-        <v>1.04703062764189</v>
+        <v>1.009960846163379</v>
       </c>
       <c r="L9">
-        <v>1.051353438236902</v>
+        <v>1.014294018886225</v>
       </c>
       <c r="M9">
-        <v>1.059391362008001</v>
+        <v>1.015190758742039</v>
       </c>
       <c r="N9">
-        <v>1.01940807063616</v>
+        <v>1.00764777271626</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038966623650252</v>
+        <v>0.9751241768369285</v>
       </c>
       <c r="D10">
-        <v>1.041913837508065</v>
+        <v>0.9861009569816144</v>
       </c>
       <c r="E10">
-        <v>1.046295949384131</v>
+        <v>0.9908566217879986</v>
       </c>
       <c r="F10">
-        <v>1.054085678443585</v>
+        <v>0.9904666593063141</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036053349724307</v>
+        <v>1.039838187519768</v>
       </c>
       <c r="J10">
-        <v>1.0452781357979</v>
+        <v>1.004360742166152</v>
       </c>
       <c r="K10">
-        <v>1.04533843885573</v>
+        <v>1.000725780967322</v>
       </c>
       <c r="L10">
-        <v>1.04970516061992</v>
+        <v>1.005392948740087</v>
       </c>
       <c r="M10">
-        <v>1.057467879582648</v>
+        <v>1.005010201274894</v>
       </c>
       <c r="N10">
-        <v>1.018877299793899</v>
+        <v>1.004670532687715</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038049662407177</v>
+        <v>0.9697306894204051</v>
       </c>
       <c r="D11">
-        <v>1.041055118996113</v>
+        <v>0.9812629529369389</v>
       </c>
       <c r="E11">
-        <v>1.045457190082369</v>
+        <v>0.9861801857758858</v>
       </c>
       <c r="F11">
-        <v>1.053128691953644</v>
+        <v>0.9852039588281628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035851472727108</v>
+        <v>1.038132108259332</v>
       </c>
       <c r="J11">
-        <v>1.044596177176998</v>
+        <v>1.000419269207801</v>
       </c>
       <c r="K11">
-        <v>1.044603582995271</v>
+        <v>0.9965470896409507</v>
       </c>
       <c r="L11">
-        <v>1.048989584724927</v>
+        <v>1.00136751582508</v>
       </c>
       <c r="M11">
-        <v>1.056633436836252</v>
+        <v>1.000410407176168</v>
       </c>
       <c r="N11">
-        <v>1.018646496331948</v>
+        <v>1.003322079043994</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037708773500474</v>
+        <v>0.9676893782258428</v>
       </c>
       <c r="D12">
-        <v>1.040735925951573</v>
+        <v>0.9794334593882518</v>
       </c>
       <c r="E12">
-        <v>1.045145452874526</v>
+        <v>0.9844122789685482</v>
       </c>
       <c r="F12">
-        <v>1.052773076660283</v>
+        <v>0.98321451055807</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035776003428113</v>
+        <v>1.037483351453833</v>
       </c>
       <c r="J12">
-        <v>1.044342508216358</v>
+        <v>0.9989270481646484</v>
       </c>
       <c r="K12">
-        <v>1.044330300475684</v>
+        <v>0.9949655815818976</v>
       </c>
       <c r="L12">
-        <v>1.048723503774488</v>
+        <v>0.9998443348100762</v>
       </c>
       <c r="M12">
-        <v>1.056323247583272</v>
+        <v>0.9986705178487152</v>
       </c>
       <c r="N12">
-        <v>1.018560617516866</v>
+        <v>1.002811553340545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.037781908495281</v>
+        <v>0.9681290179554538</v>
       </c>
       <c r="D13">
-        <v>1.04080440428967</v>
+        <v>0.9798274060946637</v>
       </c>
       <c r="E13">
-        <v>1.045212330001732</v>
+        <v>0.9847929417605905</v>
       </c>
       <c r="F13">
-        <v>1.052849364137416</v>
+        <v>0.9836428719507807</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035792213739819</v>
+        <v>1.037623210400096</v>
       </c>
       <c r="J13">
-        <v>1.044396937396039</v>
+        <v>0.9992484487025196</v>
       </c>
       <c r="K13">
-        <v>1.044388935257864</v>
+        <v>0.9953061895334178</v>
       </c>
       <c r="L13">
-        <v>1.048780591977207</v>
+        <v>1.000172366267832</v>
       </c>
       <c r="M13">
-        <v>1.056389795181012</v>
+        <v>0.9990451916499857</v>
       </c>
       <c r="N13">
-        <v>1.018579045541325</v>
+        <v>1.002921512445777</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038021490350137</v>
+        <v>0.9695627474628963</v>
       </c>
       <c r="D14">
-        <v>1.041028739055959</v>
+        <v>0.9811124047040299</v>
       </c>
       <c r="E14">
-        <v>1.045431425583926</v>
+        <v>0.9860346954582943</v>
       </c>
       <c r="F14">
-        <v>1.053099299734527</v>
+        <v>0.9850402351192603</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035845244277445</v>
+        <v>1.038078795011485</v>
       </c>
       <c r="J14">
-        <v>1.044575216174925</v>
+        <v>1.000296510510653</v>
       </c>
       <c r="K14">
-        <v>1.044581000021088</v>
+        <v>0.9964169750846797</v>
       </c>
       <c r="L14">
-        <v>1.048967596215162</v>
+        <v>1.001242193400425</v>
       </c>
       <c r="M14">
-        <v>1.056607801424261</v>
+        <v>1.000267242150062</v>
       </c>
       <c r="N14">
-        <v>1.018639400592732</v>
+        <v>1.003280080306673</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038169066192339</v>
+        <v>0.9704409881154523</v>
       </c>
       <c r="D15">
-        <v>1.041166928903284</v>
+        <v>0.98189975113656</v>
       </c>
       <c r="E15">
-        <v>1.045566392982052</v>
+        <v>0.9867956097022318</v>
       </c>
       <c r="F15">
-        <v>1.053253273526442</v>
+        <v>0.9858965134652976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035877854066872</v>
+        <v>1.038357469877349</v>
       </c>
       <c r="J15">
-        <v>1.044685011884778</v>
+        <v>1.00093845031317</v>
       </c>
       <c r="K15">
-        <v>1.044699294339444</v>
+        <v>0.9970974019819032</v>
       </c>
       <c r="L15">
-        <v>1.049082777899159</v>
+        <v>1.001897573272651</v>
       </c>
       <c r="M15">
-        <v>1.056742090293806</v>
+        <v>1.001015956040213</v>
       </c>
       <c r="N15">
-        <v>1.018676567658569</v>
+        <v>1.003499703320957</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039027439220669</v>
+        <v>0.975476988112958</v>
       </c>
       <c r="D16">
-        <v>1.041970796319647</v>
+        <v>0.9864176418690344</v>
       </c>
       <c r="E16">
-        <v>1.046351589459911</v>
+        <v>0.991162797418936</v>
       </c>
       <c r="F16">
-        <v>1.054149170073989</v>
+        <v>0.990811234566898</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036066679961024</v>
+        <v>1.039949363343164</v>
       </c>
       <c r="J16">
-        <v>1.045323345028725</v>
+        <v>1.00461850075924</v>
       </c>
       <c r="K16">
-        <v>1.045387163599339</v>
+        <v>1.000999124810838</v>
       </c>
       <c r="L16">
-        <v>1.049752611435448</v>
+        <v>1.005656311746503</v>
       </c>
       <c r="M16">
-        <v>1.057523225429586</v>
+        <v>1.005311228719197</v>
       </c>
       <c r="N16">
-        <v>1.018892596767108</v>
+        <v>1.004758714626265</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.039565366474757</v>
+        <v>0.9785718690722219</v>
       </c>
       <c r="D17">
-        <v>1.042474642733425</v>
+        <v>0.9891967213945784</v>
       </c>
       <c r="E17">
-        <v>1.046843798864643</v>
+        <v>0.9938500106443403</v>
       </c>
       <c r="F17">
-        <v>1.054710885206912</v>
+        <v>0.9938355728164801</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036184266084512</v>
+        <v>1.040922239992389</v>
       </c>
       <c r="J17">
-        <v>1.045723119419802</v>
+        <v>1.006879154267674</v>
       </c>
       <c r="K17">
-        <v>1.045818073004561</v>
+        <v>1.003396860358371</v>
       </c>
       <c r="L17">
-        <v>1.050172278863627</v>
+        <v>1.007966737620825</v>
       </c>
       <c r="M17">
-        <v>1.058012788852964</v>
+        <v>1.007952557028448</v>
       </c>
       <c r="N17">
-        <v>1.019027843731992</v>
+        <v>1.00553208928463</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039878949530133</v>
+        <v>0.980354965889378</v>
       </c>
       <c r="D18">
-        <v>1.042768385952584</v>
+        <v>0.9907987667825976</v>
       </c>
       <c r="E18">
-        <v>1.047130781290427</v>
+        <v>0.9953993938678368</v>
       </c>
       <c r="F18">
-        <v>1.055038433411512</v>
+        <v>0.9955794281174063</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036252542878412</v>
+        <v>1.041480768902665</v>
       </c>
       <c r="J18">
-        <v>1.045956073632843</v>
+        <v>1.008181248537651</v>
       </c>
       <c r="K18">
-        <v>1.046069210276792</v>
+        <v>1.00477823841181</v>
       </c>
       <c r="L18">
-        <v>1.05041688454927</v>
+        <v>1.009298015127667</v>
       </c>
       <c r="M18">
-        <v>1.058298192554708</v>
+        <v>1.009474905172263</v>
       </c>
       <c r="N18">
-        <v>1.019106636911218</v>
+        <v>1.005977519795493</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.039985842773493</v>
+        <v>0.980959297904589</v>
       </c>
       <c r="D19">
-        <v>1.042868520894578</v>
+        <v>0.99134188457491</v>
       </c>
       <c r="E19">
-        <v>1.047228615528747</v>
+        <v>0.9959247080976901</v>
       </c>
       <c r="F19">
-        <v>1.055150103675562</v>
+        <v>0.996170694916354</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036275771101302</v>
+        <v>1.041669726417999</v>
       </c>
       <c r="J19">
-        <v>1.046035466560838</v>
+        <v>1.008622492423228</v>
       </c>
       <c r="K19">
-        <v>1.046154806986844</v>
+        <v>1.005246404893505</v>
       </c>
       <c r="L19">
-        <v>1.05050025850652</v>
+        <v>1.009749235764781</v>
       </c>
       <c r="M19">
-        <v>1.058395482499059</v>
+        <v>1.009990955845454</v>
       </c>
       <c r="N19">
-        <v>1.019133487434511</v>
+        <v>1.006128460164802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039507670721701</v>
+        <v>0.9782421246178238</v>
       </c>
       <c r="D20">
-        <v>1.042420599495539</v>
+        <v>0.9889005300646146</v>
       </c>
       <c r="E20">
-        <v>1.046791001386002</v>
+        <v>0.993563579501582</v>
       </c>
       <c r="F20">
-        <v>1.054650627918636</v>
+        <v>0.993513197977805</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036171682200413</v>
+        <v>1.040818790527771</v>
       </c>
       <c r="J20">
-        <v>1.04568025096899</v>
+        <v>1.006638330115824</v>
       </c>
       <c r="K20">
-        <v>1.045771861732502</v>
+        <v>1.003141399063762</v>
       </c>
       <c r="L20">
-        <v>1.050127271093193</v>
+        <v>1.007720557720959</v>
       </c>
       <c r="M20">
-        <v>1.057960278923578</v>
+        <v>1.007671077123093</v>
       </c>
       <c r="N20">
-        <v>1.019013342755593</v>
+        <v>1.005449704626018</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037950947486133</v>
+        <v>0.9691416243039618</v>
       </c>
       <c r="D21">
-        <v>1.040962684360915</v>
+        <v>0.9807349230935855</v>
       </c>
       <c r="E21">
-        <v>1.045366912534115</v>
+        <v>0.9856699038963168</v>
       </c>
       <c r="F21">
-        <v>1.053025704061805</v>
+        <v>0.9846297278324031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035829641457049</v>
+        <v>1.037945060745171</v>
       </c>
       <c r="J21">
-        <v>1.044522727469508</v>
+        <v>0.9999886796549484</v>
       </c>
       <c r="K21">
-        <v>1.044524450727234</v>
+        <v>0.9960907070097447</v>
       </c>
       <c r="L21">
-        <v>1.048912536010846</v>
+        <v>1.000927947021646</v>
       </c>
       <c r="M21">
-        <v>1.05654361068953</v>
+        <v>0.9999082653578141</v>
       </c>
       <c r="N21">
-        <v>1.018621631635481</v>
+        <v>1.003174763818616</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036970500396627</v>
+        <v>0.9631984571326113</v>
       </c>
       <c r="D22">
-        <v>1.040044720666069</v>
+        <v>0.9754116160000837</v>
       </c>
       <c r="E22">
-        <v>1.044470460440993</v>
+        <v>0.9805267463141277</v>
       </c>
       <c r="F22">
-        <v>1.052003191227852</v>
+        <v>0.9788421818882914</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035611790465191</v>
+        <v>1.036050600003376</v>
       </c>
       <c r="J22">
-        <v>1.043792866201747</v>
+        <v>0.9956434126658097</v>
       </c>
       <c r="K22">
-        <v>1.043738275023962</v>
+        <v>0.9914864337928504</v>
       </c>
       <c r="L22">
-        <v>1.048147137221162</v>
+        <v>0.9964941008264627</v>
       </c>
       <c r="M22">
-        <v>1.055651503520604</v>
+        <v>0.9948447632311388</v>
       </c>
       <c r="N22">
-        <v>1.018374489517879</v>
+        <v>1.001688148594654</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037490414734166</v>
+        <v>0.9663711852906788</v>
       </c>
       <c r="D23">
-        <v>1.040531476973249</v>
+        <v>0.9782525126963786</v>
       </c>
       <c r="E23">
-        <v>1.044945789868182</v>
+        <v>0.9832712270017078</v>
       </c>
       <c r="F23">
-        <v>1.052545328035589</v>
+        <v>0.981930489604341</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035727542992246</v>
+        <v>1.037063569144252</v>
       </c>
       <c r="J23">
-        <v>1.044179978188622</v>
+        <v>0.9979633186699556</v>
       </c>
       <c r="K23">
-        <v>1.04415522134461</v>
+        <v>0.9939443346495072</v>
       </c>
       <c r="L23">
-        <v>1.048553047240905</v>
+        <v>0.9988608437349521</v>
       </c>
       <c r="M23">
-        <v>1.056124560122454</v>
+        <v>0.997547275463654</v>
       </c>
       <c r="N23">
-        <v>1.01850558603382</v>
+        <v>1.002481837952966</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039533741507248</v>
+        <v>0.9783911899885424</v>
       </c>
       <c r="D24">
-        <v>1.042445019746498</v>
+        <v>0.9890344245263625</v>
       </c>
       <c r="E24">
-        <v>1.046814858648955</v>
+        <v>0.9936930609151056</v>
       </c>
       <c r="F24">
-        <v>1.054677855873414</v>
+        <v>0.9936589274710584</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036177369271268</v>
+        <v>1.040865562419913</v>
       </c>
       <c r="J24">
-        <v>1.045699622079071</v>
+        <v>1.006747199029616</v>
       </c>
       <c r="K24">
-        <v>1.045792743249982</v>
+        <v>1.003256883946489</v>
       </c>
       <c r="L24">
-        <v>1.050147608720791</v>
+        <v>1.007831846196845</v>
       </c>
       <c r="M24">
-        <v>1.057984006364643</v>
+        <v>1.007798322121632</v>
       </c>
       <c r="N24">
-        <v>1.019019895413266</v>
+        <v>1.005486948161189</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.041897837920476</v>
+        <v>0.9914811422681961</v>
       </c>
       <c r="D25">
-        <v>1.044660032567621</v>
+        <v>1.000809917219966</v>
       </c>
       <c r="E25">
-        <v>1.048979315460049</v>
+        <v>1.005086554078318</v>
       </c>
       <c r="F25">
-        <v>1.057148997308302</v>
+        <v>1.006484566230089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036687243481574</v>
+        <v>1.044929754911458</v>
       </c>
       <c r="J25">
-        <v>1.047454178429282</v>
+        <v>1.016298640868449</v>
       </c>
       <c r="K25">
-        <v>1.047684975167296</v>
+        <v>1.013395673264159</v>
       </c>
       <c r="L25">
-        <v>1.051990993892163</v>
+        <v>1.017606417704769</v>
       </c>
       <c r="M25">
-        <v>1.060135910404223</v>
+        <v>1.01898304482248</v>
       </c>
       <c r="N25">
-        <v>1.019613037023756</v>
+        <v>1.008753877001322</v>
       </c>
     </row>
   </sheetData>
